--- a/document/Test/BugList/AccountControllerBugList.xlsx
+++ b/document/Test/BugList/AccountControllerBugList.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Image" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Change PassWord" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>dùng tên tk đã tồn tại vẫn đăng ký đc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>mail dùng đc 1 lần hay nhiều lần đây</t>
   </si>
@@ -43,13 +41,111 @@
   </si>
   <si>
     <t>chưa dử dụng đc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dùng tên tk đã tồn </t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign to </t>
+  </si>
+  <si>
+    <t>Root Cause</t>
+  </si>
+  <si>
+    <t>Create by</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Close Date</t>
+  </si>
+  <si>
+    <t>Refer</t>
+  </si>
+  <si>
+    <t>Coding Logic</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Cosmetic</t>
+  </si>
+  <si>
+    <t>ThanhTC</t>
+  </si>
+  <si>
+    <t>31/07/2015</t>
+  </si>
+  <si>
+    <t>TaiHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Input User name already used in "UserName" text box
+2. Click " Đăng Ký" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Input Email already used in "Email" text box
+2. Click " Đăng Ký" button
+</t>
+  </si>
+  <si>
+    <t>dùng tên tk đã tồn tại để đk thì không báo lỗi mà f5 page</t>
+  </si>
+  <si>
+    <t>Email dùng để đk đc nhiều lần</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In "Đổi Mật Khẩu" window, input wrong old password
+2. Click " Thay đổi" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In "Đổi Mật Khẩu" window, input  old password same with new password
+2. Click " Thay đổi" button
+</t>
+  </si>
+  <si>
+    <t>ko đúng mk cũ vẫn đổi đc pass</t>
+  </si>
+  <si>
+    <t>mk cũ giống mk mới ko show thông báo gì mà cho đổi luôn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +153,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -74,15 +217,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -529,6 +797,287 @@
         <a:xfrm flipV="1">
           <a:off x="5343525" y="19011900"/>
           <a:ext cx="2543175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219616</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3877216" cy="5677693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3105150" y="695325"/>
+          <a:ext cx="1752600" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3429000" y="2219325"/>
+          <a:ext cx="1457325" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286295</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>48023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="6153150"/>
+          <a:ext cx="3905795" cy="2848373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3095625" y="6610350"/>
+          <a:ext cx="1781175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="7553325"/>
+          <a:ext cx="1800225" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -846,55 +1395,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N11:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103"/>
+    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="11" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -905,24 +1454,321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>"User Interface, Business Logic, Feature missing, Coding Logic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+      <formula1>"Fatal,Serious,Medium,Cosmetic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"Immediately,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+      <formula1>"Open,Pending,Closed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I4:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+      <formula1>"Open,Pending,Closed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"Immediately,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+      <formula1>"Fatal,Serious,Medium,Cosmetic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>"User Interface, Business Logic, Feature missing, Coding Logic"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>